--- a/Configuration.xlsx
+++ b/Configuration.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ambareen Jawaheer\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ambareen Jawaheer\Downloads\PyWrike\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A474F6AF-5D9A-44D1-B37F-3219A60109B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1F3262-F59F-4566-AEF8-3E59D884937B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="74">
   <si>
     <t>Priority</t>
   </si>
@@ -233,9 +233,6 @@
     <t>Space name</t>
   </si>
   <si>
-    <t>WIP 01\Projet prod 06</t>
-  </si>
-  <si>
     <t>Trial\Organisation\Lancer projet voe</t>
   </si>
   <si>
@@ -252,6 +249,15 @@
   </si>
   <si>
     <t>janedoe@tech</t>
+  </si>
+  <si>
+    <t>Destination Space Name</t>
+  </si>
+  <si>
+    <t>WIP 02</t>
+  </si>
+  <si>
+    <t>WIP 02\Projet prod 06</t>
   </si>
 </sst>
 </file>
@@ -1061,7 +1067,7 @@
         <v>3</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -1084,13 +1090,13 @@
         <v>33</v>
       </c>
       <c r="F2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" t="s">
         <v>69</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="Q2" s="7"/>
       <c r="R2" s="8"/>
@@ -1100,7 +1106,7 @@
         <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
         <v>52</v>
@@ -1109,13 +1115,13 @@
         <v>33</v>
       </c>
       <c r="F3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" t="s">
         <v>69</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="Q3" s="7"/>
       <c r="R3" s="8"/>
@@ -1157,7 +1163,7 @@
     </row>
     <row r="17" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1173,19 +1179,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA6B1284-A277-4D4F-8420-280F747A2695}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>34</v>
       </c>
@@ -1196,10 +1203,13 @@
         <v>15</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1210,10 +1220,13 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="E2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1221,10 +1234,13 @@
         <v>42</v>
       </c>
       <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1232,10 +1248,13 @@
         <v>42</v>
       </c>
       <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1243,10 +1262,13 @@
         <v>42</v>
       </c>
       <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1254,6 +1276,9 @@
         <v>42</v>
       </c>
       <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
         <v>46</v>
       </c>
     </row>

--- a/Configuration.xlsx
+++ b/Configuration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ambareen Jawaheer\Downloads\PyWrike\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B17F6ED-4B6A-43F4-9C29-A671BF66F3D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC602D77-6AC5-4FBA-9AF1-BB5BA404021A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="77">
   <si>
     <t>Priority</t>
   </si>
@@ -86,9 +86,6 @@
     <t>Task Title</t>
   </si>
   <si>
-    <t>Projet prod 01</t>
-  </si>
-  <si>
     <t>Source Path</t>
   </si>
   <si>
@@ -146,9 +143,6 @@
     <t>Name of custom field</t>
   </si>
   <si>
-    <t>ab</t>
-  </si>
-  <si>
     <t>Destination Space Name</t>
   </si>
   <si>
@@ -173,76 +167,106 @@
     <t>05 - R&amp;D Axires Wrike\02 - Propager les tâches d'un projet Modèle</t>
   </si>
   <si>
-    <t>04 - R&amp;D Axires Wrike</t>
-  </si>
-  <si>
-    <t>R&amp;D Wrike\03 - Créer une nouvelle tâche</t>
-  </si>
-  <si>
-    <t>Tâche 03 à partir du fichier de config</t>
-  </si>
-  <si>
-    <t>Tâche 04 à partir du fichier de config</t>
-  </si>
-  <si>
-    <t>Tâche 02 à partir du fichier de config</t>
-  </si>
-  <si>
-    <t>Tâche 01 à partir du fichier de config</t>
-  </si>
-  <si>
-    <t>05 - R&amp;D Axires Wrike\04 - Propager un dossier complet avec des sous-dossiers et tâches</t>
-  </si>
-  <si>
-    <t>04 - R&amp;D Axires Wrike\R&amp;D Wrike</t>
-  </si>
-  <si>
     <t>First Name</t>
   </si>
   <si>
     <t>Last Name</t>
   </si>
   <si>
-    <t>Jawaheer</t>
-  </si>
-  <si>
-    <t>ambrine@axires.tech</t>
-  </si>
-  <si>
-    <t>Folder 2</t>
-  </si>
-  <si>
-    <t>Folder 3</t>
-  </si>
-  <si>
-    <t>Projet prod 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ambareen </t>
-  </si>
-  <si>
-    <t>Folder 4</t>
-  </si>
-  <si>
-    <t>Folder 5</t>
-  </si>
-  <si>
-    <t>Folder 6</t>
-  </si>
-  <si>
-    <t>Projet prod 03</t>
-  </si>
-  <si>
-    <t>Folder 1</t>
-  </si>
-  <si>
-    <t>Subfolder 1</t>
-  </si>
-  <si>
-    <t>Subfolder 2</t>
+    <t>First space</t>
+  </si>
+  <si>
+    <t>Second space</t>
+  </si>
+  <si>
+    <t>WIP 01</t>
+  </si>
+  <si>
+    <t>WIP 01\Project 01\Folder 01</t>
+  </si>
+  <si>
+    <t>Task 01</t>
+  </si>
+  <si>
+    <t>WIP 02\Project 02\Folder 01</t>
+  </si>
+  <si>
+    <t>WIP 02</t>
+  </si>
+  <si>
+    <t>WIP 01\Project 01\Folder 02</t>
+  </si>
+  <si>
+    <t>WIP 02\Project 02\Folder 02</t>
+  </si>
+  <si>
+    <t>WIP 01\Project 01\Folder 02\Subfolder 01</t>
+  </si>
+  <si>
+    <t>WIP 02\Project 02\Folder 02\Subfolder 01</t>
+  </si>
+  <si>
+    <t>Project 01</t>
+  </si>
+  <si>
+    <t>Jane</t>
+  </si>
+  <si>
+    <t>Doe</t>
+  </si>
+  <si>
+    <t>janedoe@gmail.com</t>
+  </si>
+  <si>
+    <t>Folder 01</t>
+  </si>
+  <si>
+    <t>Folder 02</t>
+  </si>
+  <si>
+    <t>Folder 03</t>
+  </si>
+  <si>
+    <t>Folder 04</t>
+  </si>
+  <si>
+    <t>Folder-1</t>
+  </si>
+  <si>
+    <t>Subfolder-1</t>
+  </si>
+  <si>
+    <t>Subfolder-2</t>
+  </si>
+  <si>
+    <t>Subfolder-3</t>
+  </si>
+  <si>
+    <t>Project 02</t>
+  </si>
+  <si>
+    <t>Project 03</t>
   </si>
   <si>
     <t>Task 1</t>
+  </si>
+  <si>
+    <t>Email support on the task limit error</t>
+  </si>
+  <si>
+    <t>Subtask 1</t>
+  </si>
+  <si>
+    <t>Follow up on the email</t>
+  </si>
+  <si>
+    <t>token here…</t>
+  </si>
+  <si>
+    <t>client_id here…</t>
+  </si>
+  <si>
+    <t>client_secret here</t>
   </si>
 </sst>
 </file>
@@ -320,7 +344,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -332,8 +356,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -646,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7D4BAB3-02D2-4730-AFBF-56055A29CEDD}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -662,26 +684,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -689,28 +711,45 @@
         <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="E2" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" t="s">
+        <v>76</v>
+      </c>
       <c r="D3" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -724,16 +763,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B7AB0E7-D22E-4EDF-B82D-74BD98F3678F}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="18.109375" customWidth="1"/>
+    <col min="2" max="3" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="34.77734375" customWidth="1"/>
+    <col min="5" max="6" width="18.109375" customWidth="1"/>
     <col min="7" max="7" width="17.44140625" customWidth="1"/>
     <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -743,10 +784,10 @@
         <v>10</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>7</v>
@@ -769,28 +810,28 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="9">
+        <v>45619</v>
+      </c>
+      <c r="F2" s="9">
+        <v>45984</v>
+      </c>
+      <c r="G2" t="s">
         <v>60</v>
       </c>
-      <c r="C2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="11">
-        <v>45628</v>
-      </c>
-      <c r="F2" s="11">
-        <v>45629</v>
-      </c>
-      <c r="G2" t="s">
-        <v>65</v>
-      </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="I2" t="s">
         <v>61</v>
@@ -798,28 +839,28 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="11">
-        <v>45628</v>
-      </c>
-      <c r="F3" s="11">
-        <v>45629</v>
+        <v>59</v>
+      </c>
+      <c r="E3" s="9">
+        <v>45619</v>
+      </c>
+      <c r="F3" s="9">
+        <v>45984</v>
       </c>
       <c r="G3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="I3" t="s">
         <v>62</v>
@@ -827,82 +868,84 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="11">
-        <v>45628</v>
-      </c>
-      <c r="F4" s="11">
-        <v>45629</v>
+        <v>59</v>
+      </c>
+      <c r="E4" s="9">
+        <v>45619</v>
+      </c>
+      <c r="F4" s="9">
+        <v>45984</v>
       </c>
       <c r="G4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="11">
-        <v>45628</v>
-      </c>
-      <c r="F5" s="11">
-        <v>45629</v>
+        <v>59</v>
+      </c>
+      <c r="E5" s="9">
+        <v>45619</v>
+      </c>
+      <c r="F5" s="9">
+        <v>45984</v>
       </c>
       <c r="G5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I5" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="G6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="G7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" t="s">
         <v>67</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" xr:uid="{2C3A02B2-BD7C-47D3-A5B0-026CA58270B4}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{28D9660C-85DC-43AB-B519-E8E7AC0C7878}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{72C8367A-C571-4EC8-A168-F1C46FBFC445}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{3B81A3C7-1AC4-4404-860A-F695424C98C1}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{496D8E04-0426-4058-96E0-453010BAD1BE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -910,24 +953,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
     <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
     <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" customWidth="1"/>
     <col min="8" max="8" width="20.44140625" customWidth="1"/>
     <col min="9" max="9" width="11.88671875" customWidth="1"/>
     <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.33203125" bestFit="1" customWidth="1"/>
@@ -936,10 +979,10 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>6</v>
@@ -969,7 +1012,7 @@
         <v>3</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -980,191 +1023,191 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="11">
-        <v>45621</v>
-      </c>
-      <c r="J2" s="11">
-        <v>45622</v>
-      </c>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="8"/>
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="9">
+        <v>45619</v>
+      </c>
+      <c r="J2" s="9">
+        <v>45620</v>
+      </c>
+      <c r="K2" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="11">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="9">
+        <v>45620</v>
+      </c>
+      <c r="J3" s="9">
         <v>45621</v>
       </c>
-      <c r="J3" s="11">
-        <v>45622</v>
-      </c>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="8"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="11">
-        <v>45621</v>
-      </c>
-      <c r="J4" s="11">
-        <v>45622</v>
-      </c>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="8"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="11">
-        <v>45621</v>
-      </c>
-      <c r="J5" s="11">
-        <v>45622</v>
-      </c>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="8"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="N13" t="s">
-        <v>36</v>
+      <c r="K3" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{DA60ECC8-B1F4-4C92-9719-AB6229BC9B9D}"/>
+    <hyperlink ref="H3" r:id="rId2" xr:uid="{BF2D80FD-F0C0-40BB-BC70-ECEFE44DB7A4}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA6B1284-A277-4D4F-8420-280F747A2695}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.5546875" customWidth="1"/>
-    <col min="2" max="2" width="74.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="36" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" customWidth="1"/>
     <col min="4" max="4" width="26.88671875" customWidth="1"/>
-    <col min="5" max="5" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
         <v>38</v>
       </c>
-      <c r="B2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
         <v>40</v>
-      </c>
-      <c r="D2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
         <v>38</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>41</v>
       </c>
-      <c r="C3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" t="s">
-        <v>43</v>
-      </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" t="s">
         <v>51</v>
       </c>
-      <c r="C4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" t="s">
-        <v>45</v>
-      </c>
       <c r="E4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
         <v>52</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1174,6 +1217,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100921739665A71684DBE072561F1F948CB" ma:contentTypeVersion="4" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="de6690824103961845b83a10f321d5f1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="87b680d5-11b3-423c-a4ba-71c96de00d8a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e7a76002c983688e61839c71b1e0a234" ns2:_="">
     <xsd:import namespace="87b680d5-11b3-423c-a4ba-71c96de00d8a"/>
@@ -1317,7 +1366,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1326,13 +1375,16 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A96EF1BB-4BA5-452E-879B-E13CF08A3590}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2B07494-AC74-4EB3-ADC2-8AFEA4A20CC6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1350,19 +1402,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{048AB3D1-7AE2-4CB8-A921-070C6D5EBE90}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A96EF1BB-4BA5-452E-879B-E13CF08A3590}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Configuration.xlsx
+++ b/Configuration.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ambareen Jawaheer\Downloads\PyWrike\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC602D77-6AC5-4FBA-9AF1-BB5BA404021A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B7CCC7-7D88-4191-832C-021B9F577F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="2" r:id="rId1"/>
     <sheet name="Projects" sheetId="3" r:id="rId2"/>
     <sheet name="Tasks" sheetId="1" r:id="rId3"/>
-    <sheet name="Propagate" sheetId="5" r:id="rId4"/>
+    <sheet name="Propagate" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="70">
   <si>
     <t>Priority</t>
   </si>
@@ -144,27 +144,6 @@
   </si>
   <si>
     <t>Destination Space Name</t>
-  </si>
-  <si>
-    <t>00 - R&amp;D Axires Wrike</t>
-  </si>
-  <si>
-    <t>03 - R&amp;D Axires Wrike</t>
-  </si>
-  <si>
-    <t>Propager une nouvelle tâche</t>
-  </si>
-  <si>
-    <t>00 - R&amp;D Axires Wrike\02 - Propager les tâches d'un projet Modèle</t>
-  </si>
-  <si>
-    <t>03 - R&amp;D Axires Wrike\02 - Propager les tâches d'un projet Modèle</t>
-  </si>
-  <si>
-    <t>05 - R&amp;D Axires Wrike</t>
-  </si>
-  <si>
-    <t>05 - R&amp;D Axires Wrike\02 - Propager les tâches d'un projet Modèle</t>
   </si>
   <si>
     <t>First Name</t>
@@ -668,7 +647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7D4BAB3-02D2-4730-AFBF-56055A29CEDD}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -731,25 +710,25 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -784,10 +763,10 @@
         <v>10</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>7</v>
@@ -810,16 +789,16 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E2" s="9">
         <v>45619</v>
@@ -828,27 +807,27 @@
         <v>45984</v>
       </c>
       <c r="G2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="I2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E3" s="9">
         <v>45619</v>
@@ -857,27 +836,27 @@
         <v>45984</v>
       </c>
       <c r="G3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" t="s">
         <v>61</v>
       </c>
-      <c r="H3" t="s">
-        <v>68</v>
-      </c>
       <c r="I3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E4" s="9">
         <v>45619</v>
@@ -886,24 +865,24 @@
         <v>45984</v>
       </c>
       <c r="G4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" t="s">
         <v>62</v>
-      </c>
-      <c r="H4" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E5" s="9">
         <v>45619</v>
@@ -912,31 +891,31 @@
         <v>45984</v>
       </c>
       <c r="G5" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="G6" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="G7" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="G8" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1023,25 +1002,25 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
         <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="I2" s="9">
         <v>45619</v>
@@ -1050,33 +1029,33 @@
         <v>45620</v>
       </c>
       <c r="K2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="I3" s="9">
         <v>45620</v>
@@ -1085,7 +1064,7 @@
         <v>45621</v>
       </c>
       <c r="K3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1100,18 +1079,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA6B1284-A277-4D4F-8420-280F747A2695}">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B56690-F2C0-4E40-A041-52536FC6109D}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="36" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" customWidth="1"/>
-    <col min="4" max="4" width="26.88671875" customWidth="1"/>
-    <col min="5" max="5" width="36.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -1131,95 +1110,63 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>36</v>
-      </c>
       <c r="B3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
         <v>47</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" t="s">
         <v>48</v>
       </c>
-      <c r="C4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" t="s">
-        <v>55</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1367,19 +1314,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A96EF1BB-4BA5-452E-879B-E13CF08A3590}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{048AB3D1-7AE2-4CB8-A921-070C6D5EBE90}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1403,9 +1346,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{048AB3D1-7AE2-4CB8-A921-070C6D5EBE90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A96EF1BB-4BA5-452E-879B-E13CF08A3590}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>